--- a/Shading Trees/Sensitivity Results/Shading Trees - Banana yield.xlsx
+++ b/Shading Trees/Sensitivity Results/Shading Trees - Banana yield.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Investment</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
   </si>
 </sst>
 </file>
@@ -479,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,19 +634,19 @@
         <v>1.000000158324838</v>
       </c>
       <c r="E4">
-        <v>0.6446222355589271</v>
+        <v>0.6107773305848241</v>
       </c>
       <c r="F4">
-        <v>0.6446221334992324</v>
+        <v>0.6107772338836177</v>
       </c>
       <c r="G4">
-        <v>1.551296407667005</v>
+        <v>1.637258143433925</v>
       </c>
       <c r="H4">
         <v>0.02726734952011611</v>
       </c>
       <c r="I4">
-        <v>0.0004894310477538966</v>
+        <v>0.002956964177428745</v>
       </c>
       <c r="J4">
         <v>0.002290673249262909</v>
@@ -661,7 +658,7 @@
         <v>0.05236644484102726</v>
       </c>
       <c r="M4">
-        <v>0.06455782894045115</v>
+        <v>0.03071292489767075</v>
       </c>
       <c r="N4">
         <v>0.0005181713204365224</v>
@@ -685,7 +682,7 @@
         <v>-0.5448288190818857</v>
       </c>
       <c r="U4">
-        <v>-0.008870053623468266</v>
+        <v>-0.05822071621696523</v>
       </c>
       <c r="V4">
         <v>-0.04581206010607275</v>
@@ -694,7 +691,7 @@
         <v>-1.019551726290956</v>
       </c>
       <c r="X4">
-        <v>-1.193950824905187</v>
+        <v>-0.5170527440495789</v>
       </c>
       <c r="Y4">
         <v>-1.043237413046882</v>
@@ -710,19 +707,19 @@
         <v>1.000000158324838</v>
       </c>
       <c r="E5">
-        <v>0.690074922516942</v>
+        <v>0.6562300184741616</v>
       </c>
       <c r="F5">
-        <v>0.6900748132609592</v>
+        <v>0.6562299145766669</v>
       </c>
       <c r="G5">
-        <v>1.449118241650473</v>
+        <v>1.523856163498884</v>
       </c>
       <c r="H5">
         <v>0.02919887700409163</v>
       </c>
       <c r="I5">
-        <v>0.0005238270186964655</v>
+        <v>0.002991360150190303</v>
       </c>
       <c r="J5">
         <v>0.002455272810948372</v>
@@ -734,7 +731,7 @@
         <v>0.05594630865380168</v>
       </c>
       <c r="M5">
-        <v>0.06914142007008195</v>
+        <v>0.03529651556164026</v>
       </c>
       <c r="N5">
         <v>0.0005181713204365224</v>
@@ -758,7 +755,7 @@
         <v>-0.583459368761396</v>
       </c>
       <c r="U5">
-        <v>-0.009557973042319645</v>
+        <v>-0.0589086356721964</v>
       </c>
       <c r="V5">
         <v>-0.04910405133978202</v>
@@ -767,7 +764,7 @@
         <v>-1.096210796618834</v>
       </c>
       <c r="X5">
-        <v>-1.285622647497803</v>
+        <v>-0.6087245573289692</v>
       </c>
       <c r="Y5">
         <v>-1.11483468930237</v>
@@ -783,19 +780,19 @@
         <v>1.000000158324838</v>
       </c>
       <c r="E6">
-        <v>0.7355276076123118</v>
+        <v>0.7016827026382089</v>
       </c>
       <c r="F6">
-        <v>0.7355274911600412</v>
+        <v>0.7016825915444265</v>
       </c>
       <c r="G6">
-        <v>1.359568489306694</v>
+        <v>1.425145802461719</v>
       </c>
       <c r="H6">
         <v>0.03113040426978841</v>
       </c>
       <c r="I6">
-        <v>0.0005582230005529709</v>
+        <v>0.003025756130227819</v>
       </c>
       <c r="J6">
         <v>0.00261987235990091</v>
@@ -807,7 +804,7 @@
         <v>0.05952617269940674</v>
       </c>
       <c r="M6">
-        <v>0.07372501073405147</v>
+        <v>0.03988010622560978</v>
       </c>
       <c r="N6">
         <v>0.0005181713204365224</v>
@@ -831,7 +828,7 @@
         <v>-0.6220899140753318</v>
       </c>
       <c r="U6">
-        <v>-0.01024589267944975</v>
+        <v>-0.05959655527294672</v>
       </c>
       <c r="V6">
         <v>-0.05239604231883277</v>
@@ -840,7 +837,7 @@
         <v>-1.172869871603325</v>
       </c>
       <c r="X6">
-        <v>-1.377294460777193</v>
+        <v>-0.7003963706083596</v>
       </c>
       <c r="Y6">
         <v>-1.186431970214471</v>
@@ -856,19 +853,19 @@
         <v>1.000000158324838</v>
       </c>
       <c r="E7">
-        <v>0.7809802889823914</v>
+        <v>0.7471353840082884</v>
       </c>
       <c r="F7">
-        <v>0.7809801653338334</v>
+        <v>0.7471352657182188</v>
       </c>
       <c r="G7">
-        <v>1.280442249865009</v>
+        <v>1.338445721791359</v>
       </c>
       <c r="H7">
         <v>0.03306193143362179</v>
       </c>
       <c r="I7">
-        <v>0.0005926189769525081</v>
+        <v>0.003060152106627356</v>
       </c>
       <c r="J7">
         <v>0.002784471894301532</v>
@@ -880,7 +877,7 @@
         <v>0.06310603651218116</v>
       </c>
       <c r="M7">
-        <v>0.0783086009323597</v>
+        <v>0.04446369642391801</v>
       </c>
       <c r="N7">
         <v>0.0005181713204365224</v>
@@ -904,7 +901,7 @@
         <v>-0.6607204573519994</v>
       </c>
       <c r="U7">
-        <v>-0.0109338122074405</v>
+        <v>-0.06028447480093746</v>
       </c>
       <c r="V7">
         <v>-0.05568803300684522</v>
@@ -913,7 +910,7 @@
         <v>-1.249528927961364</v>
       </c>
       <c r="X7">
-        <v>-1.468966264743358</v>
+        <v>-0.7920681745745242</v>
       </c>
       <c r="Y7">
         <v>-1.25802924646996</v>
@@ -929,19 +926,19 @@
         <v>1.000000158324838</v>
       </c>
       <c r="E8">
-        <v>0.8264329647645354</v>
+        <v>0.7925880597904325</v>
       </c>
       <c r="F8">
-        <v>0.8264328339196911</v>
+        <v>0.7925879343040764</v>
       </c>
       <c r="G8">
-        <v>1.210019688178526</v>
+        <v>1.261689658293927</v>
       </c>
       <c r="H8">
         <v>0.03499345836462453</v>
       </c>
       <c r="I8">
-        <v>0.0006270149424381088</v>
+        <v>0.003094548072112957</v>
       </c>
       <c r="J8">
         <v>0.00294907141233125</v>
@@ -953,7 +950,7 @@
         <v>0.06668589939363301</v>
       </c>
       <c r="M8">
-        <v>0.08289219066500664</v>
+        <v>0.04904728662222624</v>
       </c>
       <c r="N8">
         <v>0.0005181713204365224</v>
@@ -977,7 +974,7 @@
         <v>-0.6993509959720541</v>
       </c>
       <c r="U8">
-        <v>-0.01162173151715251</v>
+        <v>-0.06097239411064947</v>
       </c>
       <c r="V8">
         <v>-0.05898002336743957</v>
@@ -986,89 +983,16 @@
         <v>-1.326187984319404</v>
       </c>
       <c r="X8">
-        <v>-1.560638059396297</v>
+        <v>-0.8837399785406888</v>
       </c>
       <c r="Y8">
         <v>-1.329626504098997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9">
-        <v>1.000000158324838</v>
-      </c>
-      <c r="E9">
-        <v>0.8718856377527118</v>
-      </c>
-      <c r="F9">
-        <v>0.8718854997115816</v>
-      </c>
-      <c r="G9">
-        <v>1.146939592791483</v>
-      </c>
-      <c r="H9">
-        <v>0.0369249851355562</v>
-      </c>
-      <c r="I9">
-        <v>0.0006614109079237096</v>
-      </c>
-      <c r="J9">
-        <v>0.003113670916718547</v>
-      </c>
-      <c r="K9">
-        <v>0.07338804891332984</v>
-      </c>
-      <c r="L9">
-        <v>0.07026576227508485</v>
-      </c>
-      <c r="M9">
-        <v>0.08747577993199229</v>
-      </c>
-      <c r="N9">
-        <v>0.0005181713204365224</v>
-      </c>
-      <c r="O9">
-        <v>0.0009185673316096654</v>
-      </c>
-      <c r="P9">
-        <v>1.404879185429309e-06</v>
-      </c>
-      <c r="Q9">
-        <v>0.06491394690237939</v>
-      </c>
-      <c r="R9">
-        <v>0.09720575390383601</v>
-      </c>
-      <c r="S9">
-        <v>0.00409148377366364</v>
-      </c>
-      <c r="T9">
-        <v>-0.7379815313906875</v>
-      </c>
-      <c r="U9">
-        <v>-0.01230965082686453</v>
-      </c>
-      <c r="V9">
-        <v>-0.06227201345518552</v>
-      </c>
-      <c r="W9">
-        <v>-1.402847031364217</v>
-      </c>
-      <c r="X9">
-        <v>-1.65230984473601</v>
-      </c>
-      <c r="Y9">
-        <v>-1.401223761728033</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Shading Trees/Sensitivity Results/Shading Trees - Banana yield.xlsx
+++ b/Shading Trees/Sensitivity Results/Shading Trees - Banana yield.xlsx
@@ -631,70 +631,70 @@
         <v>30</v>
       </c>
       <c r="D4">
-        <v>1.000000158324838</v>
+        <v>5373.000859812833</v>
       </c>
       <c r="E4">
-        <v>0.6107773305848241</v>
+        <v>3268.002014659345</v>
       </c>
       <c r="F4">
-        <v>0.6107772338836177</v>
+        <v>0.6082265943976016</v>
       </c>
       <c r="G4">
-        <v>1.637258143433925</v>
+        <v>1.644124096530862</v>
       </c>
       <c r="H4">
-        <v>0.02726734952011611</v>
+        <v>145.9361429969722</v>
       </c>
       <c r="I4">
-        <v>0.002956964177428745</v>
+        <v>15.89677538211254</v>
       </c>
       <c r="J4">
-        <v>0.002290673249262909</v>
+        <v>12.25906828093957</v>
       </c>
       <c r="K4">
-        <v>0.05422328365966678</v>
+        <v>290.2080667279661</v>
       </c>
       <c r="L4">
-        <v>0.05236644484102726</v>
+        <v>280.3078072129283</v>
       </c>
       <c r="M4">
-        <v>0.03071292489767075</v>
+        <v>163.4015853721648</v>
       </c>
       <c r="N4">
-        <v>0.0005181713204365224</v>
+        <v>2.784134542991524</v>
       </c>
       <c r="O4">
-        <v>0.0009185673316096654</v>
+        <v>4.935462251400168</v>
       </c>
       <c r="P4">
-        <v>1.404879185429309e-06</v>
+        <v>0.007548424894594064</v>
       </c>
       <c r="Q4">
-        <v>0.06491394690237939</v>
+        <v>348.7826346189249</v>
       </c>
       <c r="R4">
-        <v>0.09720575390383601</v>
+        <v>522.286516635213</v>
       </c>
       <c r="S4">
-        <v>0.00409148377366364</v>
+        <v>21.98354299389757</v>
       </c>
       <c r="T4">
-        <v>-0.5448288190818857</v>
+        <v>-2915.938725396452</v>
       </c>
       <c r="U4">
-        <v>-0.05822071621696523</v>
+        <v>-313.0000453908506</v>
       </c>
       <c r="V4">
-        <v>-0.04581206010607275</v>
+        <v>-245.1738171938969</v>
       </c>
       <c r="W4">
-        <v>-1.019551726290956</v>
+        <v>-5455.378699940396</v>
       </c>
       <c r="X4">
-        <v>-0.5170527440495789</v>
+        <v>-2745.745190808084</v>
       </c>
       <c r="Y4">
-        <v>-1.043237413046882</v>
+        <v>-5584.172601264669</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -704,70 +704,70 @@
         <v>31</v>
       </c>
       <c r="D5">
-        <v>1.000000158324838</v>
+        <v>5373.000859812833</v>
       </c>
       <c r="E5">
-        <v>0.6562300184741616</v>
+        <v>3510.376313173212</v>
       </c>
       <c r="F5">
-        <v>0.6562299145766669</v>
+        <v>0.6533362649220746</v>
       </c>
       <c r="G5">
-        <v>1.523856163498884</v>
+        <v>1.530605376879352</v>
       </c>
       <c r="H5">
-        <v>0.02919887700409163</v>
+        <v>156.2359183937078</v>
       </c>
       <c r="I5">
-        <v>0.002991360150190303</v>
+        <v>16.08018431834171</v>
       </c>
       <c r="J5">
-        <v>0.002455272810948372</v>
+        <v>13.13678750392228</v>
       </c>
       <c r="K5">
-        <v>0.05805623717606068</v>
+        <v>310.6471039720345</v>
       </c>
       <c r="L5">
-        <v>0.05594630865380168</v>
+        <v>299.3972496122587</v>
       </c>
       <c r="M5">
-        <v>0.03529651556164026</v>
+        <v>187.8434411343187</v>
       </c>
       <c r="N5">
-        <v>0.0005181713204365224</v>
+        <v>2.784134542991524</v>
       </c>
       <c r="O5">
-        <v>0.0009185673316096654</v>
+        <v>4.935462251400168</v>
       </c>
       <c r="P5">
-        <v>1.404879185429309e-06</v>
+        <v>0.007548424894594064</v>
       </c>
       <c r="Q5">
-        <v>0.06491394690237939</v>
+        <v>348.7826346189249</v>
       </c>
       <c r="R5">
-        <v>0.09720575390383601</v>
+        <v>522.286516635213</v>
       </c>
       <c r="S5">
-        <v>0.00409148377366364</v>
+        <v>21.98354299389757</v>
       </c>
       <c r="T5">
-        <v>-0.583459368761396</v>
+        <v>-3121.934233331165</v>
       </c>
       <c r="U5">
-        <v>-0.0589086356721964</v>
+        <v>-316.668224115434</v>
       </c>
       <c r="V5">
-        <v>-0.04910405133978202</v>
+        <v>-262.728201653551</v>
       </c>
       <c r="W5">
-        <v>-1.096210796618834</v>
+        <v>-5864.159444821766</v>
       </c>
       <c r="X5">
-        <v>-0.6087245573289692</v>
+        <v>-3234.582306051161</v>
       </c>
       <c r="Y5">
-        <v>-1.11483468930237</v>
+        <v>-5965.961449251277</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -777,70 +777,70 @@
         <v>32</v>
       </c>
       <c r="D6">
-        <v>1.000000158324838</v>
+        <v>5373.000859812833</v>
       </c>
       <c r="E6">
-        <v>0.7016827026382089</v>
+        <v>3752.632387840189</v>
       </c>
       <c r="F6">
-        <v>0.7016825915444265</v>
+        <v>0.6984239321284811</v>
       </c>
       <c r="G6">
-        <v>1.425145802461719</v>
+        <v>1.431795151910747</v>
       </c>
       <c r="H6">
-        <v>0.03113040426978841</v>
+        <v>166.5306698293716</v>
       </c>
       <c r="I6">
-        <v>0.003025756130227819</v>
+        <v>16.26350379249925</v>
       </c>
       <c r="J6">
-        <v>0.00261987235990091</v>
+        <v>14.01407859842311</v>
       </c>
       <c r="K6">
-        <v>0.06188919092528522</v>
+        <v>331.0761715883855</v>
       </c>
       <c r="L6">
-        <v>0.05952617269940674</v>
+        <v>318.477380680386</v>
       </c>
       <c r="M6">
-        <v>0.03988010622560978</v>
+        <v>212.273374798242</v>
       </c>
       <c r="N6">
-        <v>0.0005181713204365224</v>
+        <v>2.784134542991524</v>
       </c>
       <c r="O6">
-        <v>0.0009185673316096654</v>
+        <v>4.935462251400168</v>
       </c>
       <c r="P6">
-        <v>1.404879185429309e-06</v>
+        <v>0.007548424894594064</v>
       </c>
       <c r="Q6">
-        <v>0.06491394690237939</v>
+        <v>348.7826346189249</v>
       </c>
       <c r="R6">
-        <v>0.09720575390383601</v>
+        <v>522.286516635213</v>
       </c>
       <c r="S6">
-        <v>0.00409148377366364</v>
+        <v>21.98354299389757</v>
       </c>
       <c r="T6">
-        <v>-0.6220899140753318</v>
+        <v>-3327.829262044441</v>
       </c>
       <c r="U6">
-        <v>-0.05959655527294672</v>
+        <v>-320.3346135985848</v>
       </c>
       <c r="V6">
-        <v>-0.05239604231883277</v>
+        <v>-280.2740235435676</v>
       </c>
       <c r="W6">
-        <v>-1.172869871603325</v>
+        <v>-6272.740797148785</v>
       </c>
       <c r="X6">
-        <v>-0.7003963706083596</v>
+        <v>-3723.180979329627</v>
       </c>
       <c r="Y6">
-        <v>-1.186431970214471</v>
+        <v>-6347.564070613822</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -850,70 +850,70 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>1.000000158324838</v>
+        <v>5373.000859812833</v>
       </c>
       <c r="E7">
-        <v>0.7471353840082884</v>
+        <v>3994.770325143822</v>
       </c>
       <c r="F7">
-        <v>0.7471352657182188</v>
+        <v>0.7434896121127696</v>
       </c>
       <c r="G7">
-        <v>1.338445721791359</v>
+        <v>1.34500870450403</v>
       </c>
       <c r="H7">
-        <v>0.03306193143362179</v>
+        <v>176.8204009789333</v>
       </c>
       <c r="I7">
-        <v>0.003060152106627356</v>
+        <v>16.44673387000694</v>
       </c>
       <c r="J7">
-        <v>0.002784471894301532</v>
+        <v>14.89094187761202</v>
       </c>
       <c r="K7">
-        <v>0.06572214374318719</v>
+        <v>351.4952768699732</v>
       </c>
       <c r="L7">
-        <v>0.06310603651218116</v>
+        <v>337.5482072285376</v>
       </c>
       <c r="M7">
-        <v>0.04446369642391801</v>
+        <v>236.6913950848393</v>
       </c>
       <c r="N7">
-        <v>0.0005181713204365224</v>
+        <v>2.784134542991524</v>
       </c>
       <c r="O7">
-        <v>0.0009185673316096654</v>
+        <v>4.935462251400168</v>
       </c>
       <c r="P7">
-        <v>1.404879185429309e-06</v>
+        <v>0.007548424894594064</v>
       </c>
       <c r="Q7">
-        <v>0.06491394690237939</v>
+        <v>348.7826346189249</v>
       </c>
       <c r="R7">
-        <v>0.09720575390383601</v>
+        <v>522.286516635213</v>
       </c>
       <c r="S7">
-        <v>0.00409148377366364</v>
+        <v>21.98354299389757</v>
       </c>
       <c r="T7">
-        <v>-0.6607204573519994</v>
+        <v>-3533.623885035675</v>
       </c>
       <c r="U7">
-        <v>-0.06028447480093746</v>
+        <v>-323.9992151487386</v>
       </c>
       <c r="V7">
-        <v>-0.05568803300684522</v>
+        <v>-297.8112891273458</v>
       </c>
       <c r="W7">
-        <v>-1.249528927961364</v>
+        <v>-6681.122902780538</v>
       </c>
       <c r="X7">
-        <v>-0.7920681745745242</v>
+        <v>-4211.541385061573</v>
       </c>
       <c r="Y7">
-        <v>-1.25802924646996</v>
+        <v>-6728.980601576855</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -923,70 +923,70 @@
         <v>34</v>
       </c>
       <c r="D8">
-        <v>1.000000158324838</v>
+        <v>5373.000859812833</v>
       </c>
       <c r="E8">
-        <v>0.7925880597904325</v>
+        <v>4236.790211478248</v>
       </c>
       <c r="F8">
-        <v>0.7925879343040764</v>
+        <v>0.7885333209542489</v>
       </c>
       <c r="G8">
-        <v>1.261689658293927</v>
+        <v>1.268177226537292</v>
       </c>
       <c r="H8">
-        <v>0.03499345836462453</v>
+        <v>187.1051155137393</v>
       </c>
       <c r="I8">
-        <v>0.003094548072112957</v>
+        <v>16.6298746162538</v>
       </c>
       <c r="J8">
-        <v>0.00294907141233125</v>
+        <v>15.76737765435155</v>
       </c>
       <c r="K8">
-        <v>0.06955509656108916</v>
+        <v>371.9044271013699</v>
       </c>
       <c r="L8">
-        <v>0.06668589939363301</v>
+        <v>356.6097360621206</v>
       </c>
       <c r="M8">
-        <v>0.04904728662222624</v>
+        <v>261.0975107066333</v>
       </c>
       <c r="N8">
-        <v>0.0005181713204365224</v>
+        <v>2.784134542991524</v>
       </c>
       <c r="O8">
-        <v>0.0009185673316096654</v>
+        <v>4.935462251400168</v>
       </c>
       <c r="P8">
-        <v>1.404879185429309e-06</v>
+        <v>0.007548424894594064</v>
       </c>
       <c r="Q8">
-        <v>0.06491394690237939</v>
+        <v>348.7826346189249</v>
       </c>
       <c r="R8">
-        <v>0.09720575390383601</v>
+        <v>522.286516635213</v>
       </c>
       <c r="S8">
-        <v>0.00409148377366364</v>
+        <v>21.98354299389757</v>
       </c>
       <c r="T8">
-        <v>-0.6993509959720541</v>
+        <v>-3739.318175731794</v>
       </c>
       <c r="U8">
-        <v>-0.06097239411064947</v>
+        <v>-327.6620300736759</v>
       </c>
       <c r="V8">
-        <v>-0.05898002336743957</v>
+        <v>-315.3400046621364</v>
       </c>
       <c r="W8">
-        <v>-1.326187984319404</v>
+        <v>-7089.305907408474</v>
       </c>
       <c r="X8">
-        <v>-0.8837399785406888</v>
+        <v>-4699.663697497454</v>
       </c>
       <c r="Y8">
-        <v>-1.329626504098997</v>
+        <v>-7110.211178248515</v>
       </c>
     </row>
   </sheetData>
